--- a/solutions/cisco/cloud/hybrid-infrastructure/presales/level-of-effort-estimate.xlsx
+++ b/solutions/cisco/cloud/hybrid-infrastructure/presales/level-of-effort-estimate.xlsx
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="D3" s="46">
-        <f>ROUND($G$9*40,0)</f>
+        <f>ROUND($C$23*40,0)</f>
         <v/>
       </c>
       <c r="E3" s="47" t="n">
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="D4" s="49">
-        <f>ROUND($G$9*32,0)</f>
+        <f>ROUND($C$23*32,0)</f>
         <v/>
       </c>
       <c r="E4" s="50" t="n">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D5" s="46">
-        <f>ROUND($G$9*24,0)</f>
+        <f>ROUND($C$23*24,0)</f>
         <v/>
       </c>
       <c r="E5" s="47" t="n">
@@ -2003,7 +2003,7 @@
         </is>
       </c>
       <c r="D6" s="49">
-        <f>ROUND($G$9*32,0)</f>
+        <f>ROUND($C$23*32,0)</f>
         <v/>
       </c>
       <c r="E6" s="50" t="n">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D7" s="46">
-        <f>ROUND($G$10*48,0)</f>
+        <f>ROUND($C$24*48,0)</f>
         <v/>
       </c>
       <c r="E7" s="47" t="n">
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="D8" s="49">
-        <f>ROUND($G$10*32,0)</f>
+        <f>ROUND($C$24*32,0)</f>
         <v/>
       </c>
       <c r="E8" s="50" t="n">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="D9" s="46">
-        <f>ROUND($G$10*40,0)</f>
+        <f>ROUND($C$24*40,0)</f>
         <v/>
       </c>
       <c r="E9" s="47" t="n">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="D10" s="49">
-        <f>ROUND($G$10*24,0)</f>
+        <f>ROUND($C$24*24,0)</f>
         <v/>
       </c>
       <c r="E10" s="50" t="n">
@@ -2233,7 +2233,7 @@
         </is>
       </c>
       <c r="D11" s="46">
-        <f>ROUND($G$11*80,0)</f>
+        <f>ROUND($C$25*80,0)</f>
         <v/>
       </c>
       <c r="E11" s="47" t="n">
@@ -2279,7 +2279,7 @@
         </is>
       </c>
       <c r="D12" s="49">
-        <f>ROUND($G$11*40,0)</f>
+        <f>ROUND($C$25*40,0)</f>
         <v/>
       </c>
       <c r="E12" s="50" t="n">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="D13" s="46">
-        <f>ROUND($G$11*32,0)</f>
+        <f>ROUND($C$25*32,0)</f>
         <v/>
       </c>
       <c r="E13" s="47" t="n">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="D14" s="49">
-        <f>ROUND($G$11*32,0)</f>
+        <f>ROUND($C$25*32,0)</f>
         <v/>
       </c>
       <c r="E14" s="50" t="n">
@@ -2417,7 +2417,7 @@
         </is>
       </c>
       <c r="D15" s="46">
-        <f>ROUND($G$11*20,0)</f>
+        <f>ROUND($C$25*20,0)</f>
         <v/>
       </c>
       <c r="E15" s="47" t="n">
@@ -2463,7 +2463,7 @@
         </is>
       </c>
       <c r="D16" s="49">
-        <f>ROUND($G$11*30,0)</f>
+        <f>ROUND($C$25*30,0)</f>
         <v/>
       </c>
       <c r="E16" s="50" t="n">
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="D17" s="46">
-        <f>ROUND($G$12*30,0)</f>
+        <f>ROUND($C$26*30,0)</f>
         <v/>
       </c>
       <c r="E17" s="47" t="n">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="D18" s="49">
-        <f>ROUND($G$12*24,0)</f>
+        <f>ROUND($C$26*24,0)</f>
         <v/>
       </c>
       <c r="E18" s="50" t="n">
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="D19" s="46">
-        <f>ROUND($G$12*30,0)</f>
+        <f>ROUND($C$26*30,0)</f>
         <v/>
       </c>
       <c r="E19" s="47" t="n">
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="D20" s="49">
-        <f>ROUND($G$12*40,0)</f>
+        <f>ROUND($C$26*40,0)</f>
         <v/>
       </c>
       <c r="E20" s="50" t="n">
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="D21" s="46">
-        <f>ROUND($G$13*30,0)</f>
+        <f>ROUND($C$27*30,0)</f>
         <v/>
       </c>
       <c r="E21" s="47" t="n">
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="D22" s="49">
-        <f>ROUND($G$13*40,0)</f>
+        <f>ROUND($C$27*40,0)</f>
         <v/>
       </c>
       <c r="E22" s="50" t="n">
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="D23" s="46">
-        <f>ROUND($G$13*50,0)</f>
+        <f>ROUND($C$27*50,0)</f>
         <v/>
       </c>
       <c r="E23" s="47" t="n">
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="D24" s="49">
-        <f>ROUND($G$13*40,0)</f>
+        <f>ROUND($C$27*40,0)</f>
         <v/>
       </c>
       <c r="E24" s="50" t="n">
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="D25" s="46">
-        <f>ROUND($G$13*60,0)</f>
+        <f>ROUND($C$27*60,0)</f>
         <v/>
       </c>
       <c r="E25" s="47" t="n">
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="D26" s="49">
-        <f>ROUND($G$14*24,0)</f>
+        <f>ROUND($C$28*24,0)</f>
         <v/>
       </c>
       <c r="E26" s="50" t="n">
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="D27" s="46">
-        <f>ROUND($G$14*16,0)</f>
+        <f>ROUND($C$28*16,0)</f>
         <v/>
       </c>
       <c r="E27" s="47" t="n">
@@ -3015,7 +3015,7 @@
         </is>
       </c>
       <c r="D28" s="49">
-        <f>ROUND($G$14*32,0)</f>
+        <f>ROUND($C$28*32,0)</f>
         <v/>
       </c>
       <c r="E28" s="50" t="n">
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="D29" s="46">
-        <f>ROUND($G$15*16,0)</f>
+        <f>ROUND($C$29*16,0)</f>
         <v/>
       </c>
       <c r="E29" s="47" t="n">
@@ -3103,7 +3103,7 @@
         </is>
       </c>
       <c r="D30" s="49">
-        <f>ROUND($G$15*16,0)</f>
+        <f>ROUND($C$29*16,0)</f>
         <v/>
       </c>
       <c r="E30" s="50" t="n">
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="D31" s="46">
-        <f>ROUND($G$15*24,0)</f>
+        <f>ROUND($C$29*24,0)</f>
         <v/>
       </c>
       <c r="E31" s="47" t="n">
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="D32" s="49">
-        <f>ROUND(SUM(E17:E45)*$G$16,0)</f>
+        <f>ROUND(SUM(E17:E45)*$C$30,0)</f>
         <v/>
       </c>
       <c r="E32" s="51">

--- a/solutions/cisco/cloud/hybrid-infrastructure/presales/level-of-effort-estimate.xlsx
+++ b/solutions/cisco/cloud/hybrid-infrastructure/presales/level-of-effort-estimate.xlsx
@@ -3195,11 +3195,11 @@
         </is>
       </c>
       <c r="D32" s="49">
-        <f>ROUND(SUM(E17:E45)*$C$30,0)</f>
+        <f>ROUND(SUM(E3:E31)*$C$30,0)</f>
         <v/>
       </c>
       <c r="E32" s="51">
-        <f>ROUND(SUM(E17:E45)*0.25,0)</f>
+        <f>ROUND(SUM(E3:E31)*0.25,0)</f>
         <v/>
       </c>
       <c r="F32" s="50" t="n">
@@ -3238,11 +3238,11 @@
         </is>
       </c>
       <c r="D33" s="46">
-        <f>ROUND(SUM(E17:E45)*0.20,0)</f>
+        <f>ROUND(SUM(E3:E32)*0.20,0)</f>
         <v/>
       </c>
       <c r="E33" s="52">
-        <f>ROUND(SUM(E17:E45)*0.20,0)</f>
+        <f>ROUND(SUM(E3:E32)*0.20,0)</f>
         <v/>
       </c>
       <c r="F33" s="47" t="n">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="E34" s="54">
-        <f>SUM(E17:E47)</f>
+        <f>SUM(E3:E33)</f>
         <v/>
       </c>
       <c r="F34" s="54" t="inlineStr">
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="G34" s="54">
-        <f>TEXT(SUM(G17:G47),"$#,##0")</f>
+        <f>TEXT(SUM(G3:G33),"$#,##0")</f>
         <v/>
       </c>
       <c r="H34" s="53" t="inlineStr"/>
